--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>413970.6938994888</v>
+        <v>417686.2984631859</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714286.6128340089</v>
+        <v>714286.6128340091</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12179384.22975869</v>
+        <v>12179384.22975868</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7555980.878166255</v>
+        <v>7555980.878166256</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>80.56071200726704</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>25.8696280056908</v>
       </c>
     </row>
     <row r="3">
@@ -744,10 +746,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,10 +788,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>177.2853601045099</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>128.590085938789</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,19 +901,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>173.0698006635089</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>101.6672974879144</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -981,19 +983,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>143.6532814811978</v>
+        <v>328.8388332009117</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -1218,19 +1220,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -1266,10 +1268,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>46.74539589871718</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -1370,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>172.8986667672732</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>132.7323786250089</v>
       </c>
       <c r="X11" t="n">
         <v>378.2098390737216</v>
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>171.7956830870089</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>185.3566856159496</v>
+        <v>98.42631755959526</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>325.224086848979</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.801535582750996</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -1920,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>121.3439188075509</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,10 +2061,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>56.24178417306852</v>
       </c>
       <c r="W19" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>220.8687580572993</v>
       </c>
       <c r="D20" t="n">
-        <v>243.9766307291253</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
         <v>252.3364829231459</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>109.0305713435654</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.3098444776729</v>
+        <v>99.51704826962602</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>167.1394242513581</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>30.84765070733269</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,25 +2320,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>256.6301836950001</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>151.7429841562665</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2414,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>109.0305713435654</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>216.3098444776729</v>
+        <v>99.51704826962602</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2518,22 +2520,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>34.01480318200027</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>57.98989936729292</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
@@ -2643,16 +2645,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>31.74890147707598</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
-        <v>226.1116663261494</v>
+        <v>109.3188701181024</v>
       </c>
       <c r="W27" t="n">
         <v>238.9027100790231</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.5681621840667</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>144.3503149004801</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>59.81363130725561</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
-        <v>329.4930616586638</v>
+        <v>258.7568169228599</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2880,10 +2882,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>84.08191471569448</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
         <v>98.93847887876893</v>
@@ -2919,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>216.3098444776729</v>
@@ -2937,7 +2939,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
-        <v>190.5961130869169</v>
+        <v>49.4167134343263</v>
       </c>
     </row>
     <row r="31">
@@ -2992,28 +2994,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>46.16685623779799</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>14.5038758621203</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>143.6532814811978</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>13.7382716373767</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
-        <v>183.496787923697</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>238.9027100790231</v>
+        <v>181.2963400869799</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
         <v>190.5961130869169</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>158.8972820020618</v>
       </c>
       <c r="C34" t="n">
-        <v>119.235101121757</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3229,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S34" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>213.3567077030649</v>
       </c>
       <c r="I35" t="n">
-        <v>46.09663431817574</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -3342,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>132.4615303982795</v>
       </c>
       <c r="C36" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>99.00719015711023</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
         <v>145.5577298436975</v>
@@ -3360,10 +3362,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3405,7 +3407,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>167.1394242513582</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>242.4203156776819</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
-        <v>31.10720993678618</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>122.3480666763649</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,19 +3590,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3639,13 +3641,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
-        <v>26.3733696620277</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
         <v>190.5961130869169</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2305511458285</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H40" t="n">
         <v>157.7789187685189</v>
@@ -3682,7 +3684,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>58.96816892577734</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -3752,7 +3754,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>257.4073331021193</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>79.92515991800884</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -3822,22 +3824,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>2.562210781157479</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T42" t="n">
         <v>186.7982527956746</v>
@@ -3940,22 +3942,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>109.7129576363817</v>
       </c>
       <c r="V43" t="n">
-        <v>242.4203156776819</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>265.1107116377228</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>390.8378626949542</v>
@@ -3989,13 +3991,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>339.9558972597207</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4073,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>109.0305713435654</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>114.4438583555569</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
         <v>238.9027100790231</v>
@@ -4135,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.895149631345288</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123.3987126741962</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C2" t="n">
-        <v>123.3987126741962</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D2" t="n">
         <v>42.02425610119923</v>
@@ -4364,16 +4366,16 @@
         <v>1598.98659691718</v>
       </c>
       <c r="V2" t="n">
-        <v>1262.007322813121</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="W2" t="n">
-        <v>899.472392670722</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="X2" t="n">
-        <v>517.4422521922154</v>
+        <v>1216.956456438673</v>
       </c>
       <c r="Y2" t="n">
-        <v>517.4422521922154</v>
+        <v>1190.825519059187</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461.879904359699</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C3" t="n">
-        <v>300.1762316006536</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D3" t="n">
-        <v>161.3375945908657</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E3" t="n">
-        <v>42.02425610119923</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F3" t="n">
         <v>42.02425610119923</v>
@@ -4407,25 +4409,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K3" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L3" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M3" t="n">
-        <v>1182.624153874836</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N3" t="n">
-        <v>1693.889799997958</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O3" t="n">
-        <v>2086.089750782109</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P3" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
@@ -4434,25 +4436,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S3" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T3" t="n">
-        <v>1699.943945333632</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U3" t="n">
-        <v>1481.449152931943</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V3" t="n">
-        <v>1253.053530380276</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W3" t="n">
-        <v>1011.737661613587</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X3" t="n">
-        <v>813.8206734913811</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y3" t="n">
-        <v>621.2993471409599</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="C4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="D4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="E4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="F4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="G4" t="n">
-        <v>42.02425610119923</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H4" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4510,28 +4512,28 @@
         <v>535.5461600008207</v>
       </c>
       <c r="R4" t="n">
-        <v>386.0243786151989</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S4" t="n">
-        <v>172.3146160188864</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="U4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="V4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="W4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="X4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1313.62741011778</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="C5" t="n">
-        <v>931.6936514505876</v>
+        <v>549.6635109720808</v>
       </c>
       <c r="D5" t="n">
-        <v>558.8696866778112</v>
+        <v>374.84553050389</v>
       </c>
       <c r="E5" t="n">
-        <v>558.8696866778112</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F5" t="n">
-        <v>144.7184959879815</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G5" t="n">
-        <v>144.7184959879815</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H5" t="n">
         <v>42.02425610119923</v>
@@ -4607,10 +4609,10 @@
         <v>2101.212805059961</v>
       </c>
       <c r="X5" t="n">
-        <v>2101.212805059961</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y5" t="n">
-        <v>1707.670949635799</v>
+        <v>1325.640809157293</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C6" t="n">
-        <v>300.1762316006536</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D6" t="n">
-        <v>161.3375945908657</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E6" t="n">
-        <v>42.02425610119923</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F6" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G6" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H6" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
@@ -4647,19 +4649,19 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L6" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M6" t="n">
-        <v>1182.624153874836</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N6" t="n">
-        <v>1693.889799997958</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O6" t="n">
-        <v>1943.441175274367</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P6" t="n">
         <v>1943.441175274367</v>
@@ -4668,28 +4670,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T6" t="n">
-        <v>1699.943945333632</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.449152931943</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V6" t="n">
-        <v>1253.053530380276</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y6" t="n">
-        <v>621.2993471409599</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G7" t="n">
-        <v>42.02425610119923</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H7" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4744,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>423.9580147683919</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="C8" t="n">
-        <v>42.02425610119923</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="D8" t="n">
-        <v>42.02425610119923</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="E8" t="n">
-        <v>42.02425610119923</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="F8" t="n">
-        <v>42.02425610119923</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L8" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4838,16 +4840,16 @@
         <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>1956.108480331479</v>
+        <v>1769.052367483283</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.57355018908</v>
+        <v>1406.517437340884</v>
       </c>
       <c r="X8" t="n">
-        <v>1211.543409710573</v>
+        <v>1024.487296862377</v>
       </c>
       <c r="Y8" t="n">
-        <v>818.001554286411</v>
+        <v>630.9454414382152</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>300.1762316006536</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>161.3375945908657</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>42.02425610119923</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L9" t="n">
-        <v>252.8463055811703</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>963.766715840906</v>
+        <v>1191.567699435062</v>
       </c>
       <c r="C11" t="n">
-        <v>963.766715840906</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="D11" t="n">
-        <v>963.766715840906</v>
+        <v>436.8099759950924</v>
       </c>
       <c r="E11" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F11" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G11" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H11" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I11" t="n">
         <v>42.02425610119923</v>
@@ -5045,13 +5047,13 @@
         <v>354.1631724187877</v>
       </c>
       <c r="L11" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M11" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N11" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O11" t="n">
         <v>1778.623654917371</v>
@@ -5066,25 +5068,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S11" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T11" t="n">
-        <v>1739.338711743575</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U11" t="n">
-        <v>1739.338711743575</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V11" t="n">
-        <v>1739.338711743575</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W11" t="n">
-        <v>1739.338711743575</v>
+        <v>1967.13969533773</v>
       </c>
       <c r="X11" t="n">
-        <v>1357.308571265068</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="Y11" t="n">
-        <v>963.766715840906</v>
+        <v>1191.567699435062</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5120,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J12" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K12" t="n">
-        <v>44.796090196649</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L12" t="n">
-        <v>410.6179353667646</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M12" t="n">
-        <v>895.6512888769911</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N12" t="n">
-        <v>1406.916935000113</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.116885784264</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P12" t="n">
         <v>2101.212805059961</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G13" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H13" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I13" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J13" t="n">
         <v>42.02425610119923</v>
@@ -5218,31 +5220,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R13" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1551.448899547916</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C14" t="n">
-        <v>1551.448899547916</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D14" t="n">
-        <v>1551.448899547916</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E14" t="n">
-        <v>1377.917906530736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F14" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G14" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H14" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I14" t="n">
         <v>42.02425610119923</v>
@@ -5300,28 +5302,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R14" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S14" t="n">
-        <v>1913.983829690315</v>
+        <v>1911.153995768345</v>
       </c>
       <c r="T14" t="n">
-        <v>1913.983829690315</v>
+        <v>1911.153995768345</v>
       </c>
       <c r="U14" t="n">
-        <v>1913.983829690315</v>
+        <v>1911.153995768345</v>
       </c>
       <c r="V14" t="n">
-        <v>1913.983829690315</v>
+        <v>1574.174721664286</v>
       </c>
       <c r="W14" t="n">
-        <v>1551.448899547916</v>
+        <v>1211.639791521887</v>
       </c>
       <c r="X14" t="n">
-        <v>1551.448899547916</v>
+        <v>829.6096510433804</v>
       </c>
       <c r="Y14" t="n">
-        <v>1551.448899547916</v>
+        <v>436.0677956192184</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5360,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K15" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L15" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M15" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N15" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O15" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P15" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q15" t="n">
         <v>2101.212805059961</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C17" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D17" t="n">
-        <v>1772.703626424629</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E17" t="n">
-        <v>1377.917906530736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F17" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G17" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H17" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I17" t="n">
         <v>42.02425610119923</v>
@@ -5540,25 +5542,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S17" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T17" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.212805059961</v>
+        <v>1911.153995768345</v>
       </c>
       <c r="V17" t="n">
-        <v>2101.212805059961</v>
+        <v>1574.174721664286</v>
       </c>
       <c r="W17" t="n">
-        <v>2101.212805059961</v>
+        <v>1211.639791521887</v>
       </c>
       <c r="X17" t="n">
-        <v>2101.212805059961</v>
+        <v>829.6096510433804</v>
       </c>
       <c r="Y17" t="n">
-        <v>2101.212805059961</v>
+        <v>436.0677956192184</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>691.251058534259</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C18" t="n">
-        <v>691.251058534259</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D18" t="n">
-        <v>552.412421524471</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E18" t="n">
-        <v>405.3844115813423</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F18" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G18" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H18" t="n">
         <v>42.02425610119923</v>
@@ -5592,25 +5594,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K18" t="n">
-        <v>44.796090196649</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L18" t="n">
-        <v>410.6179353667646</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M18" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N18" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O18" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P18" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q18" t="n">
         <v>2101.212805059961</v>
@@ -5637,7 +5639,7 @@
         <v>813.8206734913811</v>
       </c>
       <c r="Y18" t="n">
-        <v>691.251058534259</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="19">
@@ -5692,22 +5694,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q19" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R19" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S19" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="T19" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="U19" t="n">
-        <v>286.8932618362315</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="V19" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W19" t="n">
         <v>42.02425610119923</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1846.327468773955</v>
+        <v>265.1240117146329</v>
       </c>
       <c r="C20" t="n">
-        <v>1846.327468773955</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D20" t="n">
-        <v>1599.886427633425</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.100707739532</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F20" t="n">
-        <v>790.949517049702</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G20" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H20" t="n">
         <v>42.02425610119923</v>
@@ -5750,19 +5752,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J20" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K20" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L20" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M20" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N20" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O20" t="n">
         <v>1778.623654917371</v>
@@ -5777,25 +5779,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S20" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T20" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U20" t="n">
-        <v>1846.327468773955</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V20" t="n">
-        <v>1846.327468773955</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="W20" t="n">
-        <v>1846.327468773955</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="X20" t="n">
-        <v>1846.327468773955</v>
+        <v>1052.709406656814</v>
       </c>
       <c r="Y20" t="n">
-        <v>1846.327468773955</v>
+        <v>659.167551232652</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>753.0168738400023</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C21" t="n">
-        <v>591.313201080957</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D21" t="n">
-        <v>452.4745640711691</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E21" t="n">
-        <v>305.4465541280403</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F21" t="n">
-        <v>170.7527560779147</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G21" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H21" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I21" t="n">
         <v>42.02425610119923</v>
@@ -5832,49 +5834,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K21" t="n">
-        <v>44.796090196649</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L21" t="n">
-        <v>410.6179353667646</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M21" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N21" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O21" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P21" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R21" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S21" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T21" t="n">
-        <v>1991.080914813936</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U21" t="n">
-        <v>1772.586122412246</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V21" t="n">
-        <v>1544.19049986058</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W21" t="n">
-        <v>1302.87463109389</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X21" t="n">
-        <v>1104.957642971684</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y21" t="n">
-        <v>912.4363166212631</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K22" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L22" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M22" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N22" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O22" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P22" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q22" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R22" t="n">
-        <v>574.0835013471317</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="S22" t="n">
-        <v>360.3737387508193</v>
+        <v>1737.981261078027</v>
       </c>
       <c r="T22" t="n">
-        <v>360.3737387508193</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="U22" t="n">
-        <v>73.18349923991912</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="V22" t="n">
-        <v>73.18349923991912</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="W22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="X22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1222.989123613633</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C23" t="n">
-        <v>1222.989123613633</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D23" t="n">
-        <v>1222.989123613633</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E23" t="n">
-        <v>1222.989123613633</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F23" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G23" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H23" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I23" t="n">
         <v>42.02425610119923</v>
@@ -6014,25 +6016,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S23" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T23" t="n">
-        <v>2010.574518555815</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U23" t="n">
-        <v>2010.574518555815</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V23" t="n">
-        <v>2010.574518555815</v>
+        <v>1190.825519059187</v>
       </c>
       <c r="W23" t="n">
-        <v>2010.574518555815</v>
+        <v>1190.825519059187</v>
       </c>
       <c r="X23" t="n">
-        <v>2010.574518555815</v>
+        <v>1190.825519059187</v>
       </c>
       <c r="Y23" t="n">
-        <v>1617.032663131652</v>
+        <v>1190.825519059187</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>753.0168738400023</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C24" t="n">
-        <v>591.313201080957</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D24" t="n">
-        <v>452.4745640711691</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E24" t="n">
-        <v>305.4465541280403</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F24" t="n">
-        <v>170.7527560779147</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G24" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H24" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
@@ -6069,49 +6071,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K24" t="n">
-        <v>42.02425610119923</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L24" t="n">
-        <v>252.8463055811703</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M24" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N24" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O24" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P24" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R24" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S24" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T24" t="n">
-        <v>1991.080914813936</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U24" t="n">
-        <v>1772.586122412246</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V24" t="n">
-        <v>1544.19049986058</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W24" t="n">
-        <v>1302.87463109389</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X24" t="n">
-        <v>1104.957642971684</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y24" t="n">
-        <v>912.4363166212631</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="25">
@@ -6166,19 +6168,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q25" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R25" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S25" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T25" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U25" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V25" t="n">
         <v>42.02425610119923</v>
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1267.065153230734</v>
+        <v>872.4675925107471</v>
       </c>
       <c r="C26" t="n">
-        <v>1267.065153230734</v>
+        <v>490.5338338435544</v>
       </c>
       <c r="D26" t="n">
-        <v>1267.065153230734</v>
+        <v>490.5338338435544</v>
       </c>
       <c r="E26" t="n">
-        <v>872.2794333368408</v>
+        <v>490.5338338435544</v>
       </c>
       <c r="F26" t="n">
-        <v>458.1282426470112</v>
+        <v>76.38264315372476</v>
       </c>
       <c r="G26" t="n">
-        <v>42.02425610119923</v>
+        <v>76.38264315372476</v>
       </c>
       <c r="H26" t="n">
         <v>42.02425610119923</v>
@@ -6248,28 +6250,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R26" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S26" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T26" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V26" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W26" t="n">
-        <v>2042.637149133403</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="X26" t="n">
-        <v>1660.607008654896</v>
+        <v>1266.009447934909</v>
       </c>
       <c r="Y26" t="n">
-        <v>1267.065153230734</v>
+        <v>872.4675925107471</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>521.6641732647531</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C27" t="n">
-        <v>359.9605005057078</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D27" t="n">
-        <v>221.1218634959199</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E27" t="n">
-        <v>74.09385355279113</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F27" t="n">
-        <v>74.09385355279113</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G27" t="n">
-        <v>74.09385355279113</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H27" t="n">
-        <v>74.09385355279113</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I27" t="n">
         <v>42.02425610119923</v>
@@ -6306,19 +6308,19 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K27" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L27" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M27" t="n">
-        <v>1182.624153874836</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.916935000113</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O27" t="n">
-        <v>1799.116885784264</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P27" t="n">
         <v>2101.212805059961</v>
@@ -6327,28 +6329,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R27" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S27" t="n">
-        <v>1948.413318072701</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T27" t="n">
-        <v>1759.728214238687</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U27" t="n">
-        <v>1541.233421836997</v>
+        <v>1822.933743753217</v>
       </c>
       <c r="V27" t="n">
-        <v>1312.837799285331</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W27" t="n">
-        <v>1071.521930518641</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X27" t="n">
-        <v>873.6049423964351</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y27" t="n">
-        <v>681.083616046014</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>210.9440047333492</v>
+        <v>1722.225452986266</v>
       </c>
       <c r="C28" t="n">
-        <v>210.9440047333492</v>
+        <v>1722.225452986266</v>
       </c>
       <c r="D28" t="n">
-        <v>210.9440047333492</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E28" t="n">
-        <v>210.9440047333492</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F28" t="n">
-        <v>210.9440047333492</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G28" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H28" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I28" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J28" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K28" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L28" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M28" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N28" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O28" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P28" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q28" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R28" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S28" t="n">
-        <v>574.0835013471317</v>
+        <v>1955.404406170587</v>
       </c>
       <c r="T28" t="n">
-        <v>574.0835013471317</v>
+        <v>1722.225452986266</v>
       </c>
       <c r="U28" t="n">
-        <v>574.0835013471317</v>
+        <v>1722.225452986266</v>
       </c>
       <c r="V28" t="n">
-        <v>574.0835013471317</v>
+        <v>1722.225452986266</v>
       </c>
       <c r="W28" t="n">
-        <v>574.0835013471317</v>
+        <v>1722.225452986266</v>
       </c>
       <c r="X28" t="n">
-        <v>342.8310372425075</v>
+        <v>1722.225452986266</v>
       </c>
       <c r="Y28" t="n">
-        <v>342.8310372425075</v>
+        <v>1722.225452986266</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>608.0805386963623</v>
+        <v>1092.322729564091</v>
       </c>
       <c r="C29" t="n">
-        <v>608.0805386963623</v>
+        <v>1092.322729564091</v>
       </c>
       <c r="D29" t="n">
-        <v>608.0805386963623</v>
+        <v>719.4987647913142</v>
       </c>
       <c r="E29" t="n">
-        <v>608.0805386963623</v>
+        <v>719.4987647913142</v>
       </c>
       <c r="F29" t="n">
-        <v>608.0805386963623</v>
+        <v>719.4987647913142</v>
       </c>
       <c r="G29" t="n">
-        <v>547.662729295094</v>
+        <v>303.3947782455022</v>
       </c>
       <c r="H29" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I29" t="n">
         <v>42.02425610119923</v>
@@ -6485,28 +6487,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R29" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S29" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T29" t="n">
-        <v>1689.624883421327</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U29" t="n">
-        <v>1689.624883421327</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V29" t="n">
-        <v>1352.645609317268</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="W29" t="n">
-        <v>990.1106791748689</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="X29" t="n">
-        <v>608.0805386963623</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="Y29" t="n">
-        <v>608.0805386963623</v>
+        <v>1486.36626908211</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>674.4636602520131</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C30" t="n">
-        <v>512.7599874929679</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D30" t="n">
-        <v>373.9213504831799</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E30" t="n">
-        <v>226.8933405400512</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F30" t="n">
-        <v>226.8933405400512</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G30" t="n">
         <v>141.9621135545012</v>
@@ -6549,13 +6551,13 @@
         <v>407.8461012713149</v>
       </c>
       <c r="M30" t="n">
-        <v>737.8796590913968</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N30" t="n">
-        <v>1249.145305214519</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O30" t="n">
-        <v>1641.34525599867</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P30" t="n">
         <v>1943.441175274367</v>
@@ -6567,25 +6569,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S30" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T30" t="n">
-        <v>1912.527701225946</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U30" t="n">
-        <v>1694.032908824257</v>
+        <v>1729.918525671012</v>
       </c>
       <c r="V30" t="n">
-        <v>1465.63728627259</v>
+        <v>1501.522903119346</v>
       </c>
       <c r="W30" t="n">
-        <v>1224.321417505901</v>
+        <v>1260.207034352656</v>
       </c>
       <c r="X30" t="n">
-        <v>1026.404429383695</v>
+        <v>1062.29004623045</v>
       </c>
       <c r="Y30" t="n">
-        <v>833.8831030332741</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="31">
@@ -6640,25 +6642,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q31" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R31" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S31" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T31" t="n">
-        <v>88.6574442201871</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U31" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V31" t="n">
-        <v>42.02425610119923</v>
+        <v>559.4331216884243</v>
       </c>
       <c r="W31" t="n">
-        <v>42.02425610119923</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="X31" t="n">
         <v>42.02425610119923</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>569.0623394968745</v>
+        <v>1191.567699435062</v>
       </c>
       <c r="C32" t="n">
-        <v>187.1285808296819</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="D32" t="n">
-        <v>187.1285808296819</v>
+        <v>436.8099759950924</v>
       </c>
       <c r="E32" t="n">
-        <v>187.1285808296819</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F32" t="n">
-        <v>187.1285808296819</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G32" t="n">
-        <v>187.1285808296819</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H32" t="n">
-        <v>187.1285808296819</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I32" t="n">
         <v>42.02425610119923</v>
@@ -6722,28 +6724,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R32" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S32" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T32" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U32" t="n">
-        <v>2101.212805059961</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="V32" t="n">
-        <v>2101.212805059961</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="W32" t="n">
-        <v>1738.677874917562</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="X32" t="n">
-        <v>1356.647734439056</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="Y32" t="n">
-        <v>963.1058790148937</v>
+        <v>1191.567699435062</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6779,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J33" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K33" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L33" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M33" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N33" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O33" t="n">
-        <v>1641.34525599867</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P33" t="n">
         <v>1943.441175274367</v>
@@ -6801,22 +6803,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R33" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S33" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T33" t="n">
-        <v>1699.943945333632</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U33" t="n">
-        <v>1699.943945333632</v>
+        <v>1882.718012658271</v>
       </c>
       <c r="V33" t="n">
-        <v>1514.593654501615</v>
+        <v>1654.322390106605</v>
       </c>
       <c r="W33" t="n">
-        <v>1273.277785734925</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X33" t="n">
         <v>1273.277785734925</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>321.8363974045083</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C34" t="n">
-        <v>201.3969013219254</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D34" t="n">
-        <v>201.3969013219254</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E34" t="n">
-        <v>201.3969013219254</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F34" t="n">
-        <v>201.3969013219254</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G34" t="n">
-        <v>201.3969013219254</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K34" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L34" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M34" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N34" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O34" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P34" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q34" t="n">
-        <v>535.5461600008207</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R34" t="n">
-        <v>535.5461600008207</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="S34" t="n">
-        <v>321.8363974045083</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="T34" t="n">
-        <v>321.8363974045083</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="U34" t="n">
-        <v>321.8363974045083</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="V34" t="n">
-        <v>321.8363974045083</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="W34" t="n">
-        <v>321.8363974045083</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="X34" t="n">
-        <v>321.8363974045083</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="Y34" t="n">
-        <v>321.8363974045083</v>
+        <v>1729.655864866617</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1313.62741011778</v>
+        <v>430.353280855095</v>
       </c>
       <c r="C35" t="n">
-        <v>1313.62741011778</v>
+        <v>430.353280855095</v>
       </c>
       <c r="D35" t="n">
-        <v>1313.62741011778</v>
+        <v>430.353280855095</v>
       </c>
       <c r="E35" t="n">
-        <v>918.8416902238871</v>
+        <v>430.353280855095</v>
       </c>
       <c r="F35" t="n">
-        <v>504.6904995340574</v>
+        <v>430.353280855095</v>
       </c>
       <c r="G35" t="n">
-        <v>88.58651298824543</v>
+        <v>430.353280855095</v>
       </c>
       <c r="H35" t="n">
-        <v>88.58651298824543</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I35" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J35" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K35" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L35" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M35" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N35" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O35" t="n">
         <v>1778.623654917371</v>
@@ -6959,28 +6961,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R35" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S35" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T35" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.212805059961</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="V35" t="n">
-        <v>2101.212805059961</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="W35" t="n">
-        <v>2101.212805059961</v>
+        <v>1205.925276757764</v>
       </c>
       <c r="X35" t="n">
-        <v>2101.212805059961</v>
+        <v>823.895136279257</v>
       </c>
       <c r="Y35" t="n">
-        <v>1707.670949635799</v>
+        <v>430.353280855095</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>714.1854996151742</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C36" t="n">
-        <v>552.4818268561289</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D36" t="n">
-        <v>452.4745640711691</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E36" t="n">
-        <v>305.4465541280403</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F36" t="n">
-        <v>170.7527560779147</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G36" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H36" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I36" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2784026343054</v>
+        <v>49.73385863501696</v>
       </c>
       <c r="K36" t="n">
-        <v>331.768955194494</v>
+        <v>279.2244111952056</v>
       </c>
       <c r="L36" t="n">
-        <v>697.5908003646097</v>
+        <v>645.0462563653213</v>
       </c>
       <c r="M36" t="n">
-        <v>1182.624153874836</v>
+        <v>1130.079609875548</v>
       </c>
       <c r="N36" t="n">
-        <v>1693.889799997958</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O36" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P36" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q36" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S36" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T36" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U36" t="n">
-        <v>1541.233421836997</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V36" t="n">
-        <v>1312.837799285331</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W36" t="n">
-        <v>1071.521930518641</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X36" t="n">
-        <v>873.6049423964351</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y36" t="n">
-        <v>873.6049423964351</v>
+        <v>1055.136542258071</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K37" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L37" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M37" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N37" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O37" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R37" t="n">
-        <v>424.5617199615099</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S37" t="n">
-        <v>210.8519573651974</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T37" t="n">
-        <v>42.02425610119923</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U37" t="n">
-        <v>42.02425610119923</v>
+        <v>1814.022565549061</v>
       </c>
       <c r="V37" t="n">
-        <v>42.02425610119923</v>
+        <v>1814.022565549061</v>
       </c>
       <c r="W37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="X37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1222.989123613633</v>
+        <v>914.5334227834039</v>
       </c>
       <c r="C38" t="n">
-        <v>841.0553649464407</v>
+        <v>914.5334227834039</v>
       </c>
       <c r="D38" t="n">
-        <v>468.2314001736643</v>
+        <v>914.5334227834039</v>
       </c>
       <c r="E38" t="n">
-        <v>73.44568027977112</v>
+        <v>914.5334227834039</v>
       </c>
       <c r="F38" t="n">
-        <v>73.44568027977112</v>
+        <v>914.5334227834039</v>
       </c>
       <c r="G38" t="n">
-        <v>73.44568027977112</v>
+        <v>498.4294362375919</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02425610119923</v>
+        <v>165.6081618349012</v>
       </c>
       <c r="I38" t="n">
         <v>42.02425610119923</v>
@@ -7196,28 +7198,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R38" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S38" t="n">
-        <v>2010.574518555815</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T38" t="n">
-        <v>2010.574518555815</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U38" t="n">
-        <v>2010.574518555815</v>
+        <v>1659.098493404309</v>
       </c>
       <c r="V38" t="n">
-        <v>2010.574518555815</v>
+        <v>1659.098493404309</v>
       </c>
       <c r="W38" t="n">
-        <v>2010.574518555815</v>
+        <v>1296.563563261911</v>
       </c>
       <c r="X38" t="n">
-        <v>2010.574518555815</v>
+        <v>914.5334227834039</v>
       </c>
       <c r="Y38" t="n">
-        <v>1617.032663131652</v>
+        <v>914.5334227834039</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C39" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D39" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E39" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F39" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G39" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I39" t="n">
         <v>42.02425610119923</v>
@@ -7254,49 +7256,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K39" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L39" t="n">
-        <v>407.8461012713149</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M39" t="n">
-        <v>892.8794547815413</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N39" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O39" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P39" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q39" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R39" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S39" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T39" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U39" t="n">
-        <v>1541.233421836997</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V39" t="n">
-        <v>1514.593654501615</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W39" t="n">
-        <v>1273.277785734925</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X39" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y39" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G40" t="n">
-        <v>1932.293056427811</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H40" t="n">
-        <v>1772.920411207085</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I40" t="n">
-        <v>1628.717366809764</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1483.792538631556</v>
+        <v>1232.894925352115</v>
       </c>
       <c r="C41" t="n">
-        <v>1483.792538631556</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="D41" t="n">
-        <v>1110.96857385878</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="E41" t="n">
-        <v>716.1828539648868</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F41" t="n">
-        <v>302.0316632750572</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="G41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="H41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J41" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K41" t="n">
         <v>354.1631724187877</v>
@@ -7442,19 +7444,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U41" t="n">
-        <v>1846.327468773955</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V41" t="n">
-        <v>1846.327468773955</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W41" t="n">
-        <v>1483.792538631556</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X41" t="n">
-        <v>1483.792538631556</v>
+        <v>2020.480320294296</v>
       </c>
       <c r="Y41" t="n">
-        <v>1483.792538631556</v>
+        <v>1626.938464870134</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>521.6641732647531</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C42" t="n">
-        <v>359.9605005057078</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D42" t="n">
-        <v>359.9605005057078</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E42" t="n">
-        <v>212.9324905625791</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F42" t="n">
-        <v>212.9324905625791</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G42" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L42" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M42" t="n">
-        <v>953.1336013146474</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N42" t="n">
-        <v>1464.39924743777</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O42" t="n">
         <v>1799.116885784264</v>
@@ -7515,25 +7517,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S42" t="n">
-        <v>1948.413318072701</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T42" t="n">
-        <v>1759.728214238687</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U42" t="n">
-        <v>1541.233421836997</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V42" t="n">
-        <v>1312.837799285331</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.521930518641</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X42" t="n">
-        <v>873.6049423964351</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y42" t="n">
-        <v>681.083616046014</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K43" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L43" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M43" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N43" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O43" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q43" t="n">
-        <v>2101.212805059961</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R43" t="n">
-        <v>2101.212805059961</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S43" t="n">
-        <v>2101.212805059961</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="T43" t="n">
-        <v>2101.212805059961</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="U43" t="n">
-        <v>1814.022565549061</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1707.670949635799</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="C44" t="n">
-        <v>1707.670949635799</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="D44" t="n">
-        <v>1439.882352021938</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="E44" t="n">
-        <v>1045.096632128045</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F44" t="n">
-        <v>630.9454414382152</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G44" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H44" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I44" t="n">
         <v>42.02425610119923</v>
@@ -7655,10 +7657,10 @@
         <v>702.048545503734</v>
       </c>
       <c r="M44" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N44" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O44" t="n">
         <v>1778.623654917371</v>
@@ -7670,28 +7672,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S44" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T44" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U44" t="n">
-        <v>2101.212805059961</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="V44" t="n">
-        <v>2101.212805059961</v>
+        <v>1194.350961896761</v>
       </c>
       <c r="W44" t="n">
-        <v>2101.212805059961</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="X44" t="n">
-        <v>2101.212805059961</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="Y44" t="n">
-        <v>1707.670949635799</v>
+        <v>850.9611666849221</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>852.9547312933042</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C45" t="n">
-        <v>691.251058534259</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D45" t="n">
-        <v>552.412421524471</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E45" t="n">
-        <v>405.3844115813423</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F45" t="n">
-        <v>270.6906135312166</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G45" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H45" t="n">
         <v>42.02425610119923</v>
@@ -7725,25 +7727,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L45" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M45" t="n">
-        <v>953.1336013146474</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N45" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O45" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P45" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q45" t="n">
         <v>2101.212805059961</v>
@@ -7752,25 +7754,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S45" t="n">
-        <v>1948.413318072701</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T45" t="n">
-        <v>1759.728214238687</v>
+        <v>1991.080914813936</v>
       </c>
       <c r="U45" t="n">
-        <v>1759.728214238687</v>
+        <v>1772.586122412246</v>
       </c>
       <c r="V45" t="n">
-        <v>1644.128357313882</v>
+        <v>1544.19049986058</v>
       </c>
       <c r="W45" t="n">
-        <v>1402.812488547192</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X45" t="n">
-        <v>1204.895500424986</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y45" t="n">
-        <v>1012.374174074565</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C46" t="n">
-        <v>365.9301904625009</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D46" t="n">
-        <v>212.8582972902637</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E46" t="n">
-        <v>212.8582972902637</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F46" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G46" t="n">
         <v>42.02425610119923</v>
@@ -7825,31 +7827,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q46" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R46" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T46" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U46" t="n">
-        <v>535.5461600008207</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V46" t="n">
-        <v>535.5461600008207</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W46" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X46" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y46" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8070,13 +8072,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>428.7943191257726</v>
       </c>
       <c r="P3" t="n">
-        <v>124.1300184260142</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8295,7 +8297,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8307,10 +8309,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
-        <v>367.9315448499079</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>196.5733747639883</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K8" t="n">
         <v>421.3890363425141</v>
@@ -8471,7 +8473,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,13 +8531,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L9" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8550,7 +8552,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8693,7 +8695,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155851</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8766,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>114.7960015863129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8784,7 +8786,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q12" t="n">
         <v>113.7351914448925</v>
@@ -8945,7 +8947,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9006,13 +9008,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>387.98835840707</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9021,10 +9023,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,13 +9242,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>114.7960015863129</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>264.6642244265669</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9261,7 +9263,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9480,10 +9482,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>114.7960015863129</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9498,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9717,10 +9719,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L24" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9735,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9954,7 +9956,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,13 +9965,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2735058407155</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>355.9386573756997</v>
       </c>
       <c r="Q27" t="n">
         <v>113.7351914448925</v>
@@ -10197,7 +10199,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>448.8511326829348</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10206,7 +10208,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>257.4361490398531</v>
       </c>
       <c r="Q30" t="n">
         <v>273.1004740566038</v>
@@ -10425,13 +10427,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10440,10 +10442,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>367.9315448499079</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q33" t="n">
         <v>273.1004740566038</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10604,7 +10606,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,7 +10664,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>110.8430489735533</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10677,13 +10679,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P36" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10902,7 +10904,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10913,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>466.5796364545544</v>
+        <v>394.1362801165803</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11078,7 +11080,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11151,7 +11153,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>453.9580732035297</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11303,7 +11305,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406818</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11373,10 +11375,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,7 +11387,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7168621786896</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11396,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22547,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>288.5350131177816</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
@@ -22604,16 +22606,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>363.7368088642295</v>
       </c>
     </row>
     <row r="3">
@@ -22632,10 +22634,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -22674,10 +22676,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>9.512892691164751</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22717,16 +22719,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>38.64046520703948</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -22787,19 +22789,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>196.0259244615398</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>227.8257641707494</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -22847,7 +22849,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22869,19 +22871,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22954,16 +22956,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -23033,13 +23035,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,7 +23080,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>189.9561998818203</v>
+        <v>4.77064816210634</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23106,19 +23108,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23154,10 +23156,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>179.3662704274322</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
-        <v>49.21669003902576</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U11" t="n">
         <v>252.3364829231459</v>
@@ -23318,7 +23320,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>226.177202215966</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,16 +23430,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U13" t="n">
         <v>284.3183371157911</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>378.1144210805207</v>
@@ -23501,19 +23503,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>219.0421796079453</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>86.93036805635431</v>
       </c>
       <c r="T14" t="n">
         <v>222.1153568062989</v>
@@ -23552,16 +23554,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>43.87163827606969</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>249.5349473403949</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -23877,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>69.25219427936608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23932,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>211.5726649703493</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>201.8861672240931</v>
       </c>
       <c r="W19" t="n">
-        <v>40.8745217900929</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>157.2456630232214</v>
       </c>
       <c r="D20" t="n">
-        <v>125.1190943959234</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
         <v>171.0890268032919</v>
@@ -24017,10 +24019,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24063,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
-        <v>77.7676814521092</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>116.7927962080469</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>230.8471636524779</v>
+        <v>63.70773940111988</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>252.4471867604422</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>153.3794950879313</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>181.8664972067516</v>
       </c>
       <c r="W23" t="n">
         <v>358.909580840975</v>
@@ -24272,7 +24274,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24300,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>77.7676814521092</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>116.7927962080469</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24406,22 +24408,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
-        <v>15.70763571947964</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
         <v>283.2948374677749</v>
@@ -24443,22 +24445,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>295.4782584766635</v>
       </c>
       <c r="I26" t="n">
         <v>171.0890268032919</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>185.3566856159496</v>
@@ -24503,7 +24505,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>300.919681473682</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24531,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.94956097976362</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>116.7927962080469</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.15165281346935</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -24613,7 +24615,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H28" t="n">
         <v>157.7789187685189</v>
@@ -24649,10 +24651,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S28" t="n">
-        <v>211.5726649703493</v>
+        <v>67.22235006986921</v>
       </c>
       <c r="T28" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>284.3183371157911</v>
@@ -24664,7 +24666,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
@@ -24692,13 +24694,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>352.1293153730983</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>70.73624473580389</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
         <v>252.3364829231459</v>
@@ -24740,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24768,10 +24770,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>43.35930026125378</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24807,10 +24809,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>141.1793996525906</v>
       </c>
     </row>
     <row r="31">
@@ -24880,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
-        <v>238.1514808779931</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>243.6240755350413</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -24914,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
@@ -24935,7 +24937,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
-        <v>27.43574532209414</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.3364829231459</v>
+        <v>238.5982112857692</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>42.61487840245235</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>57.6063699920432</v>
       </c>
       <c r="X33" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>22.82253299547426</v>
       </c>
       <c r="C34" t="n">
-        <v>48.68470872117949</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -25090,7 +25092,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I34" t="n">
         <v>142.7610139533483</v>
@@ -25117,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
         <v>230.8471636524779</v>
@@ -25141,7 +25143,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
@@ -25160,19 +25162,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
-        <v>329.4930616586638</v>
+        <v>116.1363539555989</v>
       </c>
       <c r="I35" t="n">
-        <v>124.9923924851162</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25230,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>25.36371795516877</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>38.44306048257981</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25248,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25293,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>63.70773940111974</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>40.87452179009296</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>298.3858517218777</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>171.0890268032919</v>
+        <v>48.74096012692702</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25476,19 +25478,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25527,13 +25529,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>199.7382966641217</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25570,7 +25572,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4884972741916584</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>154.5356135782346</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
         <v>329.4930616586638</v>
@@ -25682,19 +25684,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>298.2846791557128</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25710,22 +25712,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>124.8790041957908</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,7 +25757,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25828,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>174.6053794794094</v>
       </c>
       <c r="V43" t="n">
-        <v>15.7076357194797</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
@@ -25868,7 +25870,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>103.9850134873259</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>18.95368358125427</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -25959,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
         <v>67.69846245683961</v>
@@ -25992,16 +25994,16 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>77.7676814521092</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>111.6678079705925</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>149.0606987931354</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -26077,13 +26079,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>653455.0332349091</v>
+        <v>653455.0332349092</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>653455.0332349091</v>
+        <v>653455.0332349089</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653455.0332349091</v>
+        <v>653455.0332349089</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653455.0332349091</v>
+        <v>653455.0332349089</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653455.0332349092</v>
+        <v>653455.0332349091</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>653455.0332349091</v>
+        <v>653455.0332349089</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653455.0332349087</v>
+        <v>653455.0332349091</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>653455.0332349091</v>
+        <v>653455.0332349092</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>653455.0332349091</v>
+        <v>653455.0332349092</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>143923.1563360338</v>
+      </c>
+      <c r="C2" t="n">
         <v>143923.1563360339</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>143923.1563360339</v>
+      </c>
+      <c r="E2" t="n">
         <v>143923.1563360338</v>
-      </c>
-      <c r="D2" t="n">
-        <v>143923.1563360338</v>
-      </c>
-      <c r="E2" t="n">
-        <v>143923.1563360339</v>
       </c>
       <c r="F2" t="n">
         <v>143923.1563360338</v>
       </c>
       <c r="G2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360338</v>
       </c>
       <c r="H2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360338</v>
       </c>
       <c r="I2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360338</v>
       </c>
       <c r="J2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360338</v>
       </c>
       <c r="K2" t="n">
         <v>143923.1563360338</v>
       </c>
       <c r="L2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="M2" t="n">
         <v>143923.1563360339</v>
       </c>
       <c r="N2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="O2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="P2" t="n">
         <v>143923.1563360339</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120491.3962721457</v>
+        <v>-120491.3962721458</v>
       </c>
       <c r="C6" t="n">
-        <v>55549.78844538156</v>
+        <v>55549.78844538162</v>
       </c>
       <c r="D6" t="n">
-        <v>55549.78844538159</v>
+        <v>55549.78844538165</v>
       </c>
       <c r="E6" t="n">
-        <v>89177.38844538166</v>
+        <v>89177.3884453816</v>
       </c>
       <c r="F6" t="n">
         <v>89177.3884453816</v>
       </c>
       <c r="G6" t="n">
+        <v>89177.3884453816</v>
+      </c>
+      <c r="H6" t="n">
+        <v>89177.3884453816</v>
+      </c>
+      <c r="I6" t="n">
+        <v>89177.3884453816</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-48265.04234639552</v>
+      </c>
+      <c r="K6" t="n">
+        <v>89177.3884453816</v>
+      </c>
+      <c r="L6" t="n">
+        <v>89177.38844538169</v>
+      </c>
+      <c r="M6" t="n">
+        <v>89177.38844538169</v>
+      </c>
+      <c r="N6" t="n">
+        <v>89177.38844538164</v>
+      </c>
+      <c r="O6" t="n">
         <v>89177.38844538163</v>
-      </c>
-      <c r="H6" t="n">
-        <v>89177.38844538166</v>
-      </c>
-      <c r="I6" t="n">
-        <v>89177.38844538163</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-48265.04234639546</v>
-      </c>
-      <c r="K6" t="n">
-        <v>89177.38844538157</v>
-      </c>
-      <c r="L6" t="n">
-        <v>89177.3884453816</v>
-      </c>
-      <c r="M6" t="n">
-        <v>89177.38844538163</v>
-      </c>
-      <c r="N6" t="n">
-        <v>89177.38844538157</v>
-      </c>
-      <c r="O6" t="n">
-        <v>89177.3884453816</v>
       </c>
       <c r="P6" t="n">
         <v>89177.38844538166</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
@@ -34790,13 +34792,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>312.9348705146615</v>
       </c>
       <c r="P3" t="n">
-        <v>15.27581240187084</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35027,10 +35029,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
-        <v>252.0720962387968</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>87.71916873984496</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K8" t="n">
         <v>242.5660323684674</v>
@@ -35191,7 +35193,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L9" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35270,7 +35272,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35415,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>351.3993667524705</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>2.799832419646239</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35504,7 +35506,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>489.93268031336</v>
+        <v>272.5044558454301</v>
       </c>
       <c r="N15" t="n">
         <v>516.4299455789112</v>
@@ -35741,10 +35743,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>369.5170153233491</v>
+        <v>152.0887908554191</v>
       </c>
       <c r="M18" t="n">
         <v>489.93268031336</v>
@@ -35981,7 +35983,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36200,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
@@ -36218,7 +36220,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L24" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36455,7 +36457,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K27" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>369.5170153233491</v>
@@ -36683,13 +36685,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N27" t="n">
-        <v>226.5583647730072</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O27" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P27" t="n">
-        <v>305.147393207775</v>
+        <v>247.0844513515564</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M30" t="n">
-        <v>333.3672301212949</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N30" t="n">
         <v>516.4299455789112</v>
@@ -36926,7 +36928,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P30" t="n">
-        <v>305.147393207775</v>
+        <v>148.5819430157098</v>
       </c>
       <c r="Q30" t="n">
         <v>159.3652826117113</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L33" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M33" t="n">
         <v>489.93268031336</v>
@@ -37160,10 +37162,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O33" t="n">
-        <v>396.1615664486372</v>
+        <v>252.0720962387968</v>
       </c>
       <c r="P33" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>159.3652826117113</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
@@ -37324,7 +37326,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586479</v>
+        <v>7.787477306886596</v>
       </c>
       <c r="K36" t="n">
         <v>231.8086389496855</v>
@@ -37397,13 +37399,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O36" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L39" t="n">
         <v>369.5170153233491</v>
@@ -37631,7 +37633,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>359.864495386846</v>
+        <v>287.421139048872</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37640,7 +37642,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L42" t="n">
         <v>369.5170153233491</v>
@@ -37871,7 +37873,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
-        <v>338.0986245924186</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
         <v>305.147393207775</v>
@@ -38023,7 +38025,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>397.2112790435227</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L45" t="n">
         <v>369.5170153233491</v>
@@ -38105,7 +38107,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
-        <v>299.0017211109813</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
         <v>396.1615664486372</v>
@@ -38114,7 +38116,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>417686.2984631859</v>
+        <v>349691.1305129117</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714286.6128340091</v>
+        <v>714286.6128340084</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>103.8094855920947</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>25.8696280056908</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>102.4802660394114</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -752,13 +752,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>177.2853601045099</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.590085938789</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>30.84765070733269</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>158.8960178501736</v>
       </c>
       <c r="D5" t="n">
-        <v>173.0698006635089</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -986,16 +986,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>14.5038758621203</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>136.2001289675468</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>328.8388332009117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -1223,16 +1223,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>46.74539589871718</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>17.8106505009635</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>17.74485421847202</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>132.7323786250089</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>177.6560692184699</v>
       </c>
       <c r="U12" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -1514,10 +1514,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>139.0040357308909</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>146.7950549266601</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>98.42631755959526</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
@@ -1675,7 +1675,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -1694,7 +1694,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>126.6768178662676</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -1706,7 +1706,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>40.21971180816575</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>2.801535582750996</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -1931,19 +1931,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>55.27952187619054</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
-        <v>56.24178417306852</v>
+        <v>242.420315677682</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>220.8687580572993</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>86.30336511803139</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>99.51704826962602</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>167.1394242513581</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>378.1144210805207</v>
@@ -2326,7 +2326,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>164.6606604789882</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>151.7429841562665</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -2408,16 +2408,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
-        <v>99.51704826962602</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>34.01480318200027</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>111.6921737157342</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,16 +2645,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707643</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
-        <v>109.3188701181024</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
         <v>238.9027100790231</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S28" t="n">
-        <v>144.3503149004801</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.39375210591641</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>258.7568169228599</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>164.6606604789887</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2882,13 +2882,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>216.3098444776729</v>
+        <v>188.8723197387459</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2939,7 +2939,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.4167134343263</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="31">
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V31" t="n">
-        <v>14.5038758621203</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>185.3566856159496</v>
@@ -3085,19 +3085,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>13.7382716373767</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>274.3261292394337</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,22 +3113,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D33" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>41.7579371398182</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
         <v>216.3098444776729</v>
@@ -3170,7 +3170,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>181.2963400869799</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>158.8972820020618</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>91.46446725320133</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>213.3567077030649</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>267.0441106220183</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>132.4615303982795</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
         <v>160.0866360314548</v>
@@ -3356,16 +3356,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
-        <v>216.3098444776729</v>
+        <v>188.8723197387459</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="37">
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>242.4203156776819</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>267.0441106220183</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I38" t="n">
-        <v>122.3480666763649</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3590,10 +3590,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>31.74890147707643</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3666,25 +3666,25 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>91.93139158138763</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>79.92515991800884</v>
+        <v>28.23102876584814</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3830,7 +3830,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707643</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>49.67353352483909</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
         <v>186.7982527956746</v>
@@ -3942,22 +3942,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>109.7129576363817</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
         <v>222.1153568062989</v>
@@ -4036,10 +4036,10 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>339.9558972597207</v>
+        <v>227.3424510018312</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>109.0305713435654</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
         <v>216.3098444776729</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>56.78874461372734</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>796.7819795411683</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C2" t="n">
-        <v>414.8482208739757</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D2" t="n">
         <v>42.02425610119923</v>
@@ -4330,19 +4330,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L2" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N2" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O2" t="n">
         <v>1778.623654917371</v>
@@ -4354,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S2" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T2" t="n">
-        <v>1598.98659691718</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U2" t="n">
-        <v>1598.98659691718</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V2" t="n">
-        <v>1598.98659691718</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="W2" t="n">
-        <v>1598.98659691718</v>
+        <v>922.4543182585089</v>
       </c>
       <c r="X2" t="n">
-        <v>1216.956456438673</v>
+        <v>540.4241777800023</v>
       </c>
       <c r="Y2" t="n">
-        <v>1190.825519059187</v>
+        <v>146.8823223558403</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>624.2883738632869</v>
+        <v>863.1487640860278</v>
       </c>
       <c r="C3" t="n">
-        <v>462.5847011042416</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D3" t="n">
-        <v>323.7460640944537</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E3" t="n">
-        <v>176.7180541513249</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F3" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G3" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H3" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>1122.37000734173</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N3" t="n">
-        <v>1633.635653464852</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O3" t="n">
-        <v>1943.441175274367</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P3" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T3" t="n">
-        <v>1862.35241483722</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U3" t="n">
-        <v>1643.85762243553</v>
+        <v>1882.718012658271</v>
       </c>
       <c r="V3" t="n">
-        <v>1415.461999883864</v>
+        <v>1654.322390106605</v>
       </c>
       <c r="W3" t="n">
-        <v>1174.146131117174</v>
+        <v>1413.006521339915</v>
       </c>
       <c r="X3" t="n">
-        <v>976.229142994969</v>
+        <v>1215.08953321771</v>
       </c>
       <c r="Y3" t="n">
-        <v>783.7078166445478</v>
+        <v>1022.568206867289</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H4" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4509,31 +4509,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>535.5461600008207</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T4" t="n">
-        <v>535.5461600008207</v>
+        <v>329.2144956120994</v>
       </c>
       <c r="U4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>931.5972696392735</v>
+        <v>202.5252842326877</v>
       </c>
       <c r="C5" t="n">
-        <v>549.6635109720808</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D5" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E5" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F5" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G5" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
         <v>42.02425610119923</v>
@@ -4567,10 +4567,10 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L5" t="n">
         <v>702.0485455037335</v>
@@ -4594,25 +4594,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T5" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U5" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V5" t="n">
-        <v>2101.212805059961</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="W5" t="n">
-        <v>2101.212805059961</v>
+        <v>990.1106791748689</v>
       </c>
       <c r="X5" t="n">
-        <v>1719.182664581455</v>
+        <v>990.1106791748689</v>
       </c>
       <c r="Y5" t="n">
-        <v>1325.640809157293</v>
+        <v>596.5688237507069</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C6" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D6" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E6" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F6" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G6" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
@@ -4649,22 +4649,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M6" t="n">
-        <v>953.1336013146474</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N6" t="n">
-        <v>1464.39924743777</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O6" t="n">
-        <v>1856.59919822192</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P6" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
@@ -4673,25 +4673,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T6" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U6" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V6" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W6" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X6" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y6" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I7" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4761,16 +4761,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>574.0835013471317</v>
+        <v>559.4331216884243</v>
       </c>
       <c r="W7" t="n">
-        <v>574.0835013471317</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="X7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>630.9454414382152</v>
+        <v>685.2386171411009</v>
       </c>
       <c r="C8" t="n">
-        <v>630.9454414382152</v>
+        <v>685.2386171411009</v>
       </c>
       <c r="D8" t="n">
-        <v>630.9454414382152</v>
+        <v>685.2386171411009</v>
       </c>
       <c r="E8" t="n">
-        <v>630.9454414382152</v>
+        <v>685.2386171411009</v>
       </c>
       <c r="F8" t="n">
-        <v>630.9454414382152</v>
+        <v>685.2386171411009</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
         <v>214.8414548924032</v>
@@ -4804,19 +4804,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4828,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V8" t="n">
-        <v>1769.052367483283</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W8" t="n">
-        <v>1406.517437340884</v>
+        <v>1460.81061304377</v>
       </c>
       <c r="X8" t="n">
-        <v>1024.487296862377</v>
+        <v>1078.780472565263</v>
       </c>
       <c r="Y8" t="n">
-        <v>630.9454414382152</v>
+        <v>685.2386171411009</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4886,22 +4886,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>44.796090196649</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>410.6179353667646</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4916,19 +4916,19 @@
         <v>1759.728214238687</v>
       </c>
       <c r="U9" t="n">
-        <v>1759.728214238687</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V9" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>406.5711638999306</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>406.5711638999306</v>
       </c>
       <c r="D10" t="n">
-        <v>574.0835013471317</v>
+        <v>406.5711638999306</v>
       </c>
       <c r="E10" t="n">
-        <v>574.0835013471317</v>
+        <v>254.5621496612494</v>
       </c>
       <c r="F10" t="n">
-        <v>574.0835013471317</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="G10" t="n">
-        <v>405.6571843050742</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="H10" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="I10" t="n">
         <v>102.0814946870265</v>
@@ -4986,28 +4986,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>406.5711638999306</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>406.5711638999306</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>406.5711638999306</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>406.5711638999306</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>406.5711638999306</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>406.5711638999306</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>406.5711638999306</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1191.567699435062</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="C11" t="n">
-        <v>809.6339407678688</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="D11" t="n">
-        <v>436.8099759950924</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="E11" t="n">
-        <v>42.02425610119923</v>
+        <v>890.2035285070147</v>
       </c>
       <c r="F11" t="n">
-        <v>42.02425610119923</v>
+        <v>476.052337817185</v>
       </c>
       <c r="G11" t="n">
-        <v>42.02425610119923</v>
+        <v>59.94835127137299</v>
       </c>
       <c r="H11" t="n">
         <v>42.02425610119923</v>
@@ -5047,13 +5047,13 @@
         <v>354.1631724187877</v>
       </c>
       <c r="L11" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M11" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N11" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O11" t="n">
         <v>1778.623654917371</v>
@@ -5071,22 +5071,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T11" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U11" t="n">
-        <v>2101.212805059961</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V11" t="n">
-        <v>2101.212805059961</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="W11" t="n">
-        <v>1967.13969533773</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="X11" t="n">
-        <v>1585.109554859223</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="Y11" t="n">
-        <v>1191.567699435062</v>
+        <v>1284.989248400908</v>
       </c>
     </row>
     <row r="12">
@@ -5132,13 +5132,13 @@
         <v>1182.624153874836</v>
       </c>
       <c r="N12" t="n">
-        <v>1693.889799997958</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O12" t="n">
-        <v>2086.089750782109</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P12" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q12" t="n">
         <v>2101.212805059961</v>
@@ -5147,22 +5147,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S12" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T12" t="n">
-        <v>2101.212805059961</v>
+        <v>1768.96274310455</v>
       </c>
       <c r="U12" t="n">
-        <v>1940.906265175487</v>
+        <v>1550.46795070286</v>
       </c>
       <c r="V12" t="n">
-        <v>1712.510642623821</v>
+        <v>1322.072328151194</v>
       </c>
       <c r="W12" t="n">
-        <v>1471.194773857131</v>
+        <v>1080.756459384504</v>
       </c>
       <c r="X12" t="n">
-        <v>1273.277785734925</v>
+        <v>1080.756459384504</v>
       </c>
       <c r="Y12" t="n">
         <v>1080.756459384504</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.02425610119923</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="C13" t="n">
         <v>42.02425610119923</v>
@@ -5220,31 +5220,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R13" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S13" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T13" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U13" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V13" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W13" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X13" t="n">
-        <v>42.02425610119923</v>
+        <v>433.6753844472419</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.02425610119923</v>
+        <v>211.6402256395189</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.02425610119923</v>
+        <v>945.059812800421</v>
       </c>
       <c r="C14" t="n">
-        <v>42.02425610119923</v>
+        <v>563.1260541332283</v>
       </c>
       <c r="D14" t="n">
-        <v>42.02425610119923</v>
+        <v>190.3020893604519</v>
       </c>
       <c r="E14" t="n">
         <v>42.02425610119923</v>
@@ -5302,28 +5302,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R14" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S14" t="n">
-        <v>1911.153995768345</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T14" t="n">
-        <v>1911.153995768345</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U14" t="n">
-        <v>1911.153995768345</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V14" t="n">
-        <v>1574.174721664286</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="W14" t="n">
-        <v>1211.639791521887</v>
+        <v>1327.089953278928</v>
       </c>
       <c r="X14" t="n">
-        <v>829.6096510433804</v>
+        <v>945.059812800421</v>
       </c>
       <c r="Y14" t="n">
-        <v>436.0677956192184</v>
+        <v>945.059812800421</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>921.3370166032433</v>
+        <v>833.8831030332741</v>
       </c>
       <c r="C15" t="n">
-        <v>759.6333438441981</v>
+        <v>672.1794302742288</v>
       </c>
       <c r="D15" t="n">
-        <v>620.7947068344101</v>
+        <v>533.3407932644409</v>
       </c>
       <c r="E15" t="n">
-        <v>473.7666968912813</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F15" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G15" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I15" t="n">
         <v>42.02425610119923</v>
@@ -5360,22 +5360,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L15" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M15" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N15" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O15" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P15" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q15" t="n">
         <v>2101.212805059961</v>
@@ -5387,22 +5387,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T15" t="n">
-        <v>2101.212805059961</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.906265175487</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V15" t="n">
-        <v>1712.510642623821</v>
+        <v>1465.63728627259</v>
       </c>
       <c r="W15" t="n">
-        <v>1471.194773857131</v>
+        <v>1224.321417505901</v>
       </c>
       <c r="X15" t="n">
-        <v>1273.277785734925</v>
+        <v>1026.404429383695</v>
       </c>
       <c r="Y15" t="n">
-        <v>1080.756459384504</v>
+        <v>833.8831030332741</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G16" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H16" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I16" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J16" t="n">
         <v>42.02425610119923</v>
@@ -5469,19 +5469,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U16" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V16" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42.02425610119923</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="C17" t="n">
-        <v>42.02425610119923</v>
+        <v>1307.691124754134</v>
       </c>
       <c r="D17" t="n">
-        <v>42.02425610119923</v>
+        <v>1307.691124754134</v>
       </c>
       <c r="E17" t="n">
-        <v>42.02425610119923</v>
+        <v>912.9054048602407</v>
       </c>
       <c r="F17" t="n">
-        <v>42.02425610119923</v>
+        <v>498.754214170411</v>
       </c>
       <c r="G17" t="n">
-        <v>42.02425610119923</v>
+        <v>82.65022762459898</v>
       </c>
       <c r="H17" t="n">
         <v>42.02425610119923</v>
@@ -5545,22 +5545,22 @@
         <v>1913.983829690315</v>
       </c>
       <c r="T17" t="n">
-        <v>1913.983829690315</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U17" t="n">
-        <v>1911.153995768345</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V17" t="n">
-        <v>1574.174721664286</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="W17" t="n">
-        <v>1211.639791521887</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="X17" t="n">
-        <v>829.6096510433804</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="Y17" t="n">
-        <v>436.0677956192184</v>
+        <v>1689.624883421327</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>461.879904359699</v>
+        <v>774.0988341282196</v>
       </c>
       <c r="C18" t="n">
-        <v>300.1762316006536</v>
+        <v>612.3951613691743</v>
       </c>
       <c r="D18" t="n">
-        <v>161.3375945908657</v>
+        <v>473.5565243593863</v>
       </c>
       <c r="E18" t="n">
-        <v>42.02425610119923</v>
+        <v>326.5285144162576</v>
       </c>
       <c r="F18" t="n">
-        <v>42.02425610119923</v>
+        <v>326.5285144162576</v>
       </c>
       <c r="G18" t="n">
-        <v>42.02425610119923</v>
+        <v>197.8000144395421</v>
       </c>
       <c r="H18" t="n">
-        <v>42.02425610119923</v>
+        <v>97.86215698624018</v>
       </c>
       <c r="I18" t="n">
         <v>42.02425610119923</v>
@@ -5597,10 +5597,10 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L18" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M18" t="n">
         <v>737.8796590913968</v>
@@ -5621,25 +5621,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S18" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T18" t="n">
-        <v>1699.943945333632</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U18" t="n">
-        <v>1481.449152931943</v>
+        <v>1634.248639919202</v>
       </c>
       <c r="V18" t="n">
-        <v>1253.053530380276</v>
+        <v>1405.853017367536</v>
       </c>
       <c r="W18" t="n">
-        <v>1011.737661613587</v>
+        <v>1164.537148600846</v>
       </c>
       <c r="X18" t="n">
-        <v>813.8206734913811</v>
+        <v>966.6201604786407</v>
       </c>
       <c r="Y18" t="n">
-        <v>621.2993471409599</v>
+        <v>774.0988341282196</v>
       </c>
     </row>
     <row r="19">
@@ -5694,19 +5694,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q19" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R19" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S19" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T19" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>98.83413910429874</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V19" t="n">
         <v>42.02425610119923</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>265.1240117146329</v>
+        <v>852.9139625409043</v>
       </c>
       <c r="C20" t="n">
-        <v>42.02425610119923</v>
+        <v>852.9139625409043</v>
       </c>
       <c r="D20" t="n">
-        <v>42.02425610119923</v>
+        <v>852.9139625409043</v>
       </c>
       <c r="E20" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F20" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G20" t="n">
         <v>42.02425610119923</v>
@@ -5782,22 +5782,22 @@
         <v>1913.983829690315</v>
       </c>
       <c r="T20" t="n">
-        <v>1689.624883421327</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U20" t="n">
-        <v>1434.739547135321</v>
+        <v>1659.098493404309</v>
       </c>
       <c r="V20" t="n">
-        <v>1434.739547135321</v>
+        <v>1322.119219300251</v>
       </c>
       <c r="W20" t="n">
-        <v>1434.739547135321</v>
+        <v>1322.119219300251</v>
       </c>
       <c r="X20" t="n">
-        <v>1052.709406656814</v>
+        <v>940.0890788217441</v>
       </c>
       <c r="Y20" t="n">
-        <v>659.167551232652</v>
+        <v>852.9139625409043</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C21" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D21" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E21" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F21" t="n">
-        <v>339.0728988411556</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="G21" t="n">
-        <v>210.3443988644402</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I21" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J21" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K21" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L21" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M21" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N21" t="n">
         <v>1249.145305214519</v>
@@ -5855,28 +5855,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R21" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S21" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T21" t="n">
-        <v>2041.428536154907</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U21" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V21" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W21" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X21" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y21" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K22" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L22" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M22" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N22" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O22" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R22" t="n">
-        <v>1951.691023674339</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S22" t="n">
-        <v>1737.981261078027</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T22" t="n">
-        <v>1569.153559814029</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U22" t="n">
-        <v>1569.153559814029</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>796.7819795411683</v>
+        <v>963.1058790148937</v>
       </c>
       <c r="C23" t="n">
-        <v>414.8482208739757</v>
+        <v>581.1721203477011</v>
       </c>
       <c r="D23" t="n">
-        <v>42.02425610119923</v>
+        <v>208.3481555749247</v>
       </c>
       <c r="E23" t="n">
         <v>42.02425610119923</v>
@@ -6013,28 +6013,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R23" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S23" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T23" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U23" t="n">
-        <v>1344.101260631174</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V23" t="n">
-        <v>1190.825519059187</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W23" t="n">
-        <v>1190.825519059187</v>
+        <v>1738.677874917562</v>
       </c>
       <c r="X23" t="n">
-        <v>1190.825519059187</v>
+        <v>1356.647734439056</v>
       </c>
       <c r="Y23" t="n">
-        <v>1190.825519059187</v>
+        <v>963.1058790148937</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C24" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D24" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E24" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F24" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G24" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
@@ -6092,28 +6092,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R24" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S24" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T24" t="n">
-        <v>2041.428536154907</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U24" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V24" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W24" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X24" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y24" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="25">
@@ -6168,22 +6168,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q25" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R25" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S25" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T25" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U25" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V25" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W25" t="n">
         <v>42.02425610119923</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>872.4675925107471</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="C26" t="n">
-        <v>490.5338338435544</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="D26" t="n">
-        <v>490.5338338435544</v>
+        <v>436.8099759950924</v>
       </c>
       <c r="E26" t="n">
-        <v>490.5338338435544</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F26" t="n">
-        <v>76.38264315372476</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G26" t="n">
-        <v>76.38264315372476</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H26" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I26" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J26" t="n">
         <v>114.0228003740049</v>
@@ -6241,37 +6241,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O26" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P26" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q26" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R26" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S26" t="n">
-        <v>2010.574518555815</v>
+        <v>1988.392427569321</v>
       </c>
       <c r="T26" t="n">
-        <v>2010.574518555815</v>
+        <v>1764.033481300332</v>
       </c>
       <c r="U26" t="n">
-        <v>2010.574518555815</v>
+        <v>1509.148145014326</v>
       </c>
       <c r="V26" t="n">
-        <v>2010.574518555815</v>
+        <v>1172.168870910268</v>
       </c>
       <c r="W26" t="n">
-        <v>1648.039588413416</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="X26" t="n">
-        <v>1266.009447934909</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="Y26" t="n">
-        <v>872.4675925107471</v>
+        <v>809.6339407678688</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647536</v>
       </c>
       <c r="C27" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057083</v>
       </c>
       <c r="D27" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959204</v>
       </c>
       <c r="E27" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279159</v>
       </c>
       <c r="F27" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G27" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I27" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J27" t="n">
         <v>102.2784026343054</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L27" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M27" t="n">
-        <v>953.1336013146474</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N27" t="n">
-        <v>1464.39924743777</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O27" t="n">
-        <v>1856.59919822192</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P27" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q27" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R27" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S27" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T27" t="n">
-        <v>2041.428536154907</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U27" t="n">
-        <v>1822.933743753217</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V27" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W27" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X27" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964356</v>
       </c>
       <c r="Y27" t="n">
-        <v>1080.756459384504</v>
+        <v>681.0836160460144</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1722.225452986266</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="C28" t="n">
-        <v>1722.225452986266</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K28" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L28" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M28" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N28" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O28" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R28" t="n">
-        <v>2101.212805059961</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S28" t="n">
-        <v>1955.404406170587</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="T28" t="n">
-        <v>1722.225452986266</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="U28" t="n">
-        <v>1722.225452986266</v>
+        <v>137.3714804506097</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.225452986266</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.225452986266</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="X28" t="n">
-        <v>1722.225452986266</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="Y28" t="n">
-        <v>1722.225452986266</v>
+        <v>42.02425610119924</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1092.322729564091</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C29" t="n">
-        <v>1092.322729564091</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D29" t="n">
-        <v>719.4987647913142</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E29" t="n">
-        <v>719.4987647913142</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F29" t="n">
-        <v>719.4987647913142</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G29" t="n">
-        <v>303.3947782455022</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H29" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I29" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J29" t="n">
         <v>114.0228003740049</v>
@@ -6478,37 +6478,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O29" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P29" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q29" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R29" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S29" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T29" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U29" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="V29" t="n">
-        <v>1486.36626908211</v>
+        <v>1934.888905586236</v>
       </c>
       <c r="W29" t="n">
-        <v>1486.36626908211</v>
+        <v>1572.353975443837</v>
       </c>
       <c r="X29" t="n">
-        <v>1486.36626908211</v>
+        <v>1190.32383496533</v>
       </c>
       <c r="Y29" t="n">
-        <v>1486.36626908211</v>
+        <v>796.7819795411683</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>852.9547312933042</v>
+        <v>489.5945758131612</v>
       </c>
       <c r="C30" t="n">
-        <v>691.251058534259</v>
+        <v>327.8909030541159</v>
       </c>
       <c r="D30" t="n">
-        <v>552.412421524471</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E30" t="n">
-        <v>405.3844115813423</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F30" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G30" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H30" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I30" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J30" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K30" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L30" t="n">
-        <v>407.8461012713149</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M30" t="n">
-        <v>892.8794547815413</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N30" t="n">
-        <v>1404.145100904663</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O30" t="n">
-        <v>1796.345051688814</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P30" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q30" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R30" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154908</v>
       </c>
       <c r="S30" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167648</v>
       </c>
       <c r="T30" t="n">
-        <v>1948.413318072701</v>
+        <v>1699.943945333633</v>
       </c>
       <c r="U30" t="n">
-        <v>1729.918525671012</v>
+        <v>1509.163824385405</v>
       </c>
       <c r="V30" t="n">
-        <v>1501.522903119346</v>
+        <v>1280.768201833739</v>
       </c>
       <c r="W30" t="n">
-        <v>1260.207034352656</v>
+        <v>1039.452333067049</v>
       </c>
       <c r="X30" t="n">
-        <v>1062.29004623045</v>
+        <v>841.5353449448434</v>
       </c>
       <c r="Y30" t="n">
-        <v>1012.374174074565</v>
+        <v>649.0140185944222</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="C31" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D31" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E31" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F31" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G31" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H31" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I31" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J31" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K31" t="n">
         <v>75.62844384584264</v>
@@ -6654,19 +6654,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U31" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V31" t="n">
-        <v>559.4331216884243</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W31" t="n">
-        <v>273.2767202058235</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="X31" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1191.567699435062</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="C32" t="n">
-        <v>809.6339407678688</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="D32" t="n">
-        <v>436.8099759950924</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="E32" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F32" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J32" t="n">
         <v>114.0228003740049</v>
@@ -6721,31 +6721,31 @@
         <v>2006.780551373424</v>
       </c>
       <c r="Q32" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S32" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690316</v>
       </c>
       <c r="T32" t="n">
-        <v>1598.98659691718</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U32" t="n">
-        <v>1585.109554859223</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V32" t="n">
-        <v>1585.109554859223</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="W32" t="n">
-        <v>1585.109554859223</v>
+        <v>735.2253428888635</v>
       </c>
       <c r="X32" t="n">
-        <v>1585.109554859223</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="Y32" t="n">
-        <v>1191.567699435062</v>
+        <v>458.1282426470112</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647536</v>
       </c>
       <c r="C33" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057083</v>
       </c>
       <c r="D33" t="n">
-        <v>620.7947068344101</v>
+        <v>359.9605005057083</v>
       </c>
       <c r="E33" t="n">
-        <v>473.7666968912813</v>
+        <v>212.9324905625795</v>
       </c>
       <c r="F33" t="n">
-        <v>339.0728988411556</v>
+        <v>212.9324905625795</v>
       </c>
       <c r="G33" t="n">
-        <v>210.3443988644402</v>
+        <v>84.20399058586409</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4065414111382</v>
+        <v>84.20399058586409</v>
       </c>
       <c r="I33" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J33" t="n">
         <v>102.2784026343054</v>
@@ -6791,40 +6791,40 @@
         <v>1182.624153874836</v>
       </c>
       <c r="N33" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000114</v>
       </c>
       <c r="O33" t="n">
-        <v>1943.441175274367</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P33" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q33" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R33" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S33" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T33" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U33" t="n">
-        <v>1882.718012658271</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V33" t="n">
-        <v>1654.322390106605</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W33" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X33" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964356</v>
       </c>
       <c r="Y33" t="n">
-        <v>1080.756459384504</v>
+        <v>681.0836160460144</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="C34" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="D34" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="E34" t="n">
-        <v>1569.153559814029</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="F34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K34" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L34" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M34" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N34" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O34" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>1951.691023674339</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S34" t="n">
-        <v>1951.691023674339</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T34" t="n">
-        <v>1951.691023674339</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U34" t="n">
-        <v>1951.691023674339</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V34" t="n">
-        <v>1951.691023674339</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W34" t="n">
-        <v>1951.691023674339</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X34" t="n">
-        <v>1951.691023674339</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y34" t="n">
-        <v>1729.655864866617</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>430.353280855095</v>
+        <v>374.84553050389</v>
       </c>
       <c r="C35" t="n">
-        <v>430.353280855095</v>
+        <v>374.84553050389</v>
       </c>
       <c r="D35" t="n">
-        <v>430.353280855095</v>
+        <v>374.84553050389</v>
       </c>
       <c r="E35" t="n">
-        <v>430.353280855095</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F35" t="n">
-        <v>430.353280855095</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G35" t="n">
-        <v>430.353280855095</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H35" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J35" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740048</v>
       </c>
       <c r="K35" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L35" t="n">
-        <v>702.0485455037335</v>
+        <v>702.0485455037342</v>
       </c>
       <c r="M35" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N35" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O35" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P35" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q35" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R35" t="n">
         <v>2010.574518555815</v>
       </c>
       <c r="S35" t="n">
-        <v>1823.345543186168</v>
+        <v>1823.345543186169</v>
       </c>
       <c r="T35" t="n">
-        <v>1823.345543186168</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U35" t="n">
-        <v>1568.460206900163</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V35" t="n">
-        <v>1568.460206900163</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W35" t="n">
-        <v>1205.925276757764</v>
+        <v>644.5870563847166</v>
       </c>
       <c r="X35" t="n">
-        <v>823.895136279257</v>
+        <v>374.84553050389</v>
       </c>
       <c r="Y35" t="n">
-        <v>430.353280855095</v>
+        <v>374.84553050389</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>921.3370166032433</v>
+        <v>489.5945758131612</v>
       </c>
       <c r="C36" t="n">
-        <v>759.6333438441981</v>
+        <v>327.8909030541159</v>
       </c>
       <c r="D36" t="n">
-        <v>620.7947068344101</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E36" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F36" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G36" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I36" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J36" t="n">
-        <v>49.73385863501696</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K36" t="n">
-        <v>279.2244111952056</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L36" t="n">
-        <v>645.0462563653213</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M36" t="n">
-        <v>1130.079609875548</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N36" t="n">
-        <v>1641.34525599867</v>
+        <v>1406.916935000114</v>
       </c>
       <c r="O36" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P36" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q36" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R36" t="n">
-        <v>2041.428536154907</v>
+        <v>2041.428536154908</v>
       </c>
       <c r="S36" t="n">
-        <v>1888.629049167647</v>
+        <v>1888.629049167648</v>
       </c>
       <c r="T36" t="n">
-        <v>1699.943945333632</v>
+        <v>1699.943945333633</v>
       </c>
       <c r="U36" t="n">
-        <v>1481.449152931943</v>
+        <v>1509.163824385405</v>
       </c>
       <c r="V36" t="n">
-        <v>1253.053530380276</v>
+        <v>1280.768201833739</v>
       </c>
       <c r="W36" t="n">
-        <v>1253.053530380276</v>
+        <v>1039.452333067049</v>
       </c>
       <c r="X36" t="n">
-        <v>1055.136542258071</v>
+        <v>841.5353449448434</v>
       </c>
       <c r="Y36" t="n">
-        <v>1055.136542258071</v>
+        <v>649.0140185944222</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="C37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K37" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L37" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M37" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N37" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O37" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U37" t="n">
-        <v>1814.022565549061</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V37" t="n">
-        <v>1814.022565549061</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="W37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="X37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="Y37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>914.5334227834039</v>
+        <v>644.5870563847166</v>
       </c>
       <c r="C38" t="n">
-        <v>914.5334227834039</v>
+        <v>644.5870563847166</v>
       </c>
       <c r="D38" t="n">
-        <v>914.5334227834039</v>
+        <v>374.84553050389</v>
       </c>
       <c r="E38" t="n">
-        <v>914.5334227834039</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F38" t="n">
-        <v>914.5334227834039</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G38" t="n">
-        <v>498.4294362375919</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H38" t="n">
-        <v>165.6081618349012</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J38" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K38" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L38" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M38" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N38" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O38" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P38" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q38" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R38" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S38" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186169</v>
       </c>
       <c r="T38" t="n">
-        <v>1913.983829690315</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U38" t="n">
-        <v>1659.098493404309</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V38" t="n">
-        <v>1659.098493404309</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W38" t="n">
-        <v>1296.563563261911</v>
+        <v>644.5870563847166</v>
       </c>
       <c r="X38" t="n">
-        <v>914.5334227834039</v>
+        <v>644.5870563847166</v>
       </c>
       <c r="Y38" t="n">
-        <v>914.5334227834039</v>
+        <v>644.5870563847166</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647536</v>
       </c>
       <c r="C39" t="n">
-        <v>300.1762316006536</v>
+        <v>359.9605005057083</v>
       </c>
       <c r="D39" t="n">
-        <v>161.3375945908657</v>
+        <v>221.1218634959204</v>
       </c>
       <c r="E39" t="n">
-        <v>42.02425610119923</v>
+        <v>74.09385355279159</v>
       </c>
       <c r="F39" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G39" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H39" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I39" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J39" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K39" t="n">
         <v>271.5148086613879</v>
@@ -7265,40 +7265,40 @@
         <v>1122.37000734173</v>
       </c>
       <c r="N39" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O39" t="n">
         <v>1799.116885784264</v>
       </c>
       <c r="P39" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q39" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R39" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S39" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T39" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U39" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V39" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X39" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964356</v>
       </c>
       <c r="Y39" t="n">
-        <v>621.2993471409599</v>
+        <v>681.0836160460144</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="C40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="D40" t="n">
-        <v>574.0835013471317</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="E40" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F40" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G40" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H40" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I40" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J40" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K40" t="n">
         <v>75.62844384584264</v>
@@ -7365,19 +7365,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1232.894925352115</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C41" t="n">
-        <v>850.9611666849221</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D41" t="n">
-        <v>850.9611666849221</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E41" t="n">
-        <v>456.1754467910289</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F41" t="n">
-        <v>42.02425610119928</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G41" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H41" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I41" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J41" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K41" t="n">
         <v>354.1631724187877</v>
@@ -7426,37 +7426,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O41" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P41" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q41" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R41" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S41" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690316</v>
       </c>
       <c r="T41" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="X41" t="n">
-        <v>2020.480320294296</v>
+        <v>1661.108692748753</v>
       </c>
       <c r="Y41" t="n">
-        <v>1626.938464870134</v>
+        <v>1661.108692748753</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>624.2883738632869</v>
+        <v>521.6641732647536</v>
       </c>
       <c r="C42" t="n">
-        <v>462.5847011042416</v>
+        <v>359.9605005057083</v>
       </c>
       <c r="D42" t="n">
-        <v>323.7460640944537</v>
+        <v>221.1218634959204</v>
       </c>
       <c r="E42" t="n">
-        <v>176.7180541513249</v>
+        <v>74.09385355279159</v>
       </c>
       <c r="F42" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G42" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H42" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I42" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J42" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K42" t="n">
-        <v>44.796090196649</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L42" t="n">
-        <v>410.6179353667646</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M42" t="n">
-        <v>895.6512888769911</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.916935000113</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.116885784264</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P42" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q42" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R42" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S42" t="n">
-        <v>2051.037518671235</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T42" t="n">
-        <v>1862.35241483722</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U42" t="n">
-        <v>1643.85762243553</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V42" t="n">
-        <v>1415.461999883864</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W42" t="n">
-        <v>1174.146131117174</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X42" t="n">
-        <v>976.229142994969</v>
+        <v>873.6049423964356</v>
       </c>
       <c r="Y42" t="n">
-        <v>783.7078166445478</v>
+        <v>681.0836160460144</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="C43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K43" t="n">
         <v>75.62844384584264</v>
@@ -7590,31 +7590,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q43" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R43" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>152.8454254308777</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="W43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="X43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="Y43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>850.9611666849221</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="C44" t="n">
-        <v>850.9611666849221</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="D44" t="n">
-        <v>850.9611666849221</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="E44" t="n">
-        <v>456.1754467910289</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="F44" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G44" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H44" t="n">
         <v>42.02425610119923</v>
@@ -7672,28 +7672,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>2010.574518555815</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T44" t="n">
-        <v>1786.215572286826</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U44" t="n">
-        <v>1531.33023600082</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V44" t="n">
-        <v>1194.350961896761</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="W44" t="n">
-        <v>850.9611666849221</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="X44" t="n">
-        <v>850.9611666849221</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="Y44" t="n">
-        <v>850.9611666849221</v>
+        <v>1205.100707739532</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>753.0168738400023</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C45" t="n">
-        <v>591.313201080957</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D45" t="n">
-        <v>452.4745640711691</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E45" t="n">
-        <v>305.4465541280403</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F45" t="n">
-        <v>170.7527560779147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G45" t="n">
         <v>42.02425610119923</v>
@@ -7730,19 +7730,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K45" t="n">
-        <v>44.796090196649</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L45" t="n">
-        <v>410.6179353667646</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M45" t="n">
-        <v>895.6512888769911</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N45" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O45" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P45" t="n">
         <v>2101.212805059961</v>
@@ -7754,25 +7754,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S45" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T45" t="n">
-        <v>1991.080914813936</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U45" t="n">
-        <v>1772.586122412246</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V45" t="n">
-        <v>1544.19049986058</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W45" t="n">
-        <v>1302.87463109389</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X45" t="n">
-        <v>1104.957642971684</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y45" t="n">
-        <v>912.4363166212631</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42.02425610119923</v>
+        <v>516.7211330504374</v>
       </c>
       <c r="C46" t="n">
-        <v>42.02425610119923</v>
+        <v>347.1051635121177</v>
       </c>
       <c r="D46" t="n">
-        <v>42.02425610119923</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="E46" t="n">
         <v>42.02425610119923</v>
@@ -7839,19 +7839,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U46" t="n">
-        <v>286.8932618362315</v>
+        <v>516.7211330504374</v>
       </c>
       <c r="V46" t="n">
-        <v>286.8932618362315</v>
+        <v>516.7211330504374</v>
       </c>
       <c r="W46" t="n">
-        <v>42.02425610119923</v>
+        <v>516.7211330504374</v>
       </c>
       <c r="X46" t="n">
-        <v>42.02425610119923</v>
+        <v>516.7211330504374</v>
       </c>
       <c r="Y46" t="n">
-        <v>42.02425610119923</v>
+        <v>516.7211330504374</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -7999,7 +7999,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8057,7 +8057,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8072,13 +8072,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>428.7943191257726</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155851</v>
       </c>
       <c r="M5" t="n">
         <v>584.3675935406823</v>
@@ -8297,7 +8297,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8309,13 +8309,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>222.1494342538443</v>
       </c>
       <c r="P6" t="n">
-        <v>196.5733747639883</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
         <v>421.3890363425141</v>
@@ -8534,7 +8534,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>114.7960015863129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8549,10 +8549,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>189.8737781226282</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8695,7 +8695,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155851</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8710,7 +8710,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8780,16 +8780,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>479.0556164367791</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>124.1300184260142</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8947,7 +8947,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9008,13 +9008,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>387.98835840707</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9023,10 +9023,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9245,13 +9245,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9479,19 +9479,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9956,7 +9956,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9971,7 +9971,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>355.9386573756997</v>
+        <v>124.1300184260146</v>
       </c>
       <c r="Q27" t="n">
         <v>113.7351914448925</v>
@@ -10132,7 +10132,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10190,7 +10190,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>111.9961691666667</v>
@@ -10208,10 +10208,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>257.4361490398531</v>
+        <v>355.9386573757002</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10369,7 +10369,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578764</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10439,16 +10439,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>333.2735058407159</v>
       </c>
       <c r="O33" t="n">
-        <v>367.9315448499079</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10664,7 +10664,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>110.8430489735533</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10676,16 +10676,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>333.2735058407159</v>
       </c>
       <c r="O36" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10913,10 +10913,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>283.0122085297095</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11138,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>114.7960015863129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11156,7 +11156,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260146</v>
       </c>
       <c r="Q42" t="n">
         <v>113.7351914448925</v>
@@ -11378,7 +11378,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>114.7960015863129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11393,7 +11393,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q45" t="n">
         <v>113.7351914448925</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>286.2936185307443</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>363.7368088642295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>57.60636999204344</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22640,13 +22640,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>9.512892691164751</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22719,16 +22719,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>38.64046520703948</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>199.9995129451453</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -22786,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>219.2184032303471</v>
       </c>
       <c r="D5" t="n">
-        <v>196.0259244615398</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -22801,7 +22801,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -22834,22 +22834,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22874,16 +22874,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,13 +22913,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22956,16 +22956,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23001,13 +23001,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>243.6240755350413</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -23035,10 +23035,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>275.742817712807</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -23080,7 +23080,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>4.77064816210634</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23111,16 +23111,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23156,10 +23156,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>179.3662704274322</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23187,19 +23187,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>193.7620144693858</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -23260,22 +23260,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>311.7482074401918</v>
       </c>
       <c r="I11" t="n">
         <v>171.0890268032919</v>
@@ -23311,22 +23311,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>226.177202215966</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23387,13 +23387,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>186.7982527956746</v>
+        <v>9.142183577204776</v>
       </c>
       <c r="U12" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>151.5411742405149</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U13" t="n">
         <v>284.3183371157911</v>
@@ -23481,10 +23481,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>228.939939463578</v>
+        <v>89.93590373268708</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>244.0428077682941</v>
       </c>
       <c r="F14" t="n">
         <v>410.0096787829314</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>86.93036805635431</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>18.88091197742989</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>289.2733498504981</v>
       </c>
       <c r="I17" t="n">
         <v>171.0890268032919</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>249.5349473403949</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>12.41894058064907</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
         <v>211.5726649703493</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>201.8861672240931</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>157.2456630232214</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>329.4930616586638</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>358.909580840975</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>303.303071751889</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>67.18957740169296</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>116.7927962080469</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T22" t="n">
-        <v>63.70773940111988</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>283.2948374677749</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>226.177202215966</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
-        <v>181.8664972067516</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>116.7927962080469</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24445,22 +24445,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>295.4782584766635</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
         <v>171.0890268032919</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>185.3566856159496</v>
+        <v>73.66451190021542</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>116.7927962080469</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -24648,19 +24648,19 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>67.22235006986921</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>163.7341992912452</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
-        <v>70.73624473580389</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
         <v>171.0890268032919</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
         <v>222.1153568062989</v>
@@ -24739,16 +24739,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>168.9488208840293</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24770,13 +24770,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
         <v>67.69846245683961</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>27.43752473892707</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>141.1793996525906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24894,16 +24894,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>243.6240755350413</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -24919,19 +24919,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>329.4930616586638</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>238.5982112857692</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>103.8837098342879</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -25001,22 +25001,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>25.9405253170214</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,10 +25046,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>57.6063699920432</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.82253299547426</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -25083,10 +25083,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>59.02445684309301</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.2305511458285</v>
@@ -25122,7 +25122,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S34" t="n">
         <v>211.5726649703493</v>
@@ -25131,7 +25131,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25143,7 +25143,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25171,10 +25171,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
-        <v>116.1363539555989</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>111.1657284517033</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25.36371795516877</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25244,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,19 +25289,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>27.43752473892707</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25368,13 +25368,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>40.87452179009296</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25396,7 +25396,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>102.0516145030304</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
@@ -25405,13 +25405,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>48.74096012692702</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25478,10 +25478,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>101.597958592548</v>
       </c>
       <c r="G39" t="n">
         <v>127.4412149769483</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25554,25 +25554,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>59.60978265912726</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>329.4930616586638</v>
@@ -25678,10 +25678,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>252.3364829231459</v>
@@ -25693,10 +25693,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>298.2846791557128</v>
+        <v>349.9788103078735</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25718,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="G42" t="n">
         <v>127.4412149769483</v>
@@ -25757,7 +25757,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>101.597958592548</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>174.6053794794094</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
@@ -25873,16 +25873,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>171.0890268032919</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>18.95368358125427</v>
+        <v>131.5671298391438</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
         <v>98.93847887876893</v>
@@ -25994,10 +25994,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>77.7676814521092</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -26079,13 +26079,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>227.5295925020638</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>40.8745217900929</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>653455.0332349092</v>
+        <v>653455.0332349089</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>653455.0332349089</v>
+        <v>653455.0332349091</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>653455.0332349089</v>
+        <v>653455.0332349087</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653455.0332349089</v>
+        <v>653455.0332349092</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653455.0332349089</v>
+        <v>653455.0332349091</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>653455.0332349089</v>
+        <v>653455.0332349092</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653455.0332349091</v>
+        <v>653455.0332349092</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>653455.0332349091</v>
+        <v>653455.0332349093</v>
       </c>
     </row>
     <row r="15">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>143923.1563360339</v>
+      </c>
+      <c r="C2" t="n">
         <v>143923.1563360338</v>
-      </c>
-      <c r="C2" t="n">
-        <v>143923.1563360339</v>
       </c>
       <c r="D2" t="n">
         <v>143923.1563360339</v>
@@ -26325,7 +26325,7 @@
         <v>143923.1563360338</v>
       </c>
       <c r="F2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="G2" t="n">
         <v>143923.1563360338</v>
@@ -26334,7 +26334,7 @@
         <v>143923.1563360338</v>
       </c>
       <c r="I2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="J2" t="n">
         <v>143923.1563360338</v>
@@ -26352,7 +26352,7 @@
         <v>143923.1563360339</v>
       </c>
       <c r="O2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360338</v>
       </c>
       <c r="P2" t="n">
         <v>143923.1563360339</v>
@@ -26493,22 +26493,22 @@
         <v>31938.43463691141</v>
       </c>
       <c r="J5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="K5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="L5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="M5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="N5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="O5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="P5" t="n">
         <v>31938.43463691141</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120491.3962721458</v>
+        <v>-128610.9857586515</v>
       </c>
       <c r="C6" t="n">
-        <v>55549.78844538162</v>
+        <v>47430.1989588758</v>
       </c>
       <c r="D6" t="n">
-        <v>55549.78844538165</v>
+        <v>47430.19895887583</v>
       </c>
       <c r="E6" t="n">
-        <v>89177.3884453816</v>
+        <v>81057.79895887578</v>
       </c>
       <c r="F6" t="n">
-        <v>89177.3884453816</v>
+        <v>81057.79895887586</v>
       </c>
       <c r="G6" t="n">
-        <v>89177.3884453816</v>
+        <v>81057.79895887581</v>
       </c>
       <c r="H6" t="n">
-        <v>89177.3884453816</v>
+        <v>81057.79895887578</v>
       </c>
       <c r="I6" t="n">
-        <v>89177.3884453816</v>
+        <v>81057.79895887584</v>
       </c>
       <c r="J6" t="n">
-        <v>-48265.04234639552</v>
+        <v>-56384.63183290137</v>
       </c>
       <c r="K6" t="n">
-        <v>89177.3884453816</v>
+        <v>81057.79895887579</v>
       </c>
       <c r="L6" t="n">
-        <v>89177.38844538169</v>
+        <v>81057.79895887582</v>
       </c>
       <c r="M6" t="n">
-        <v>89177.38844538169</v>
+        <v>81057.79895887582</v>
       </c>
       <c r="N6" t="n">
-        <v>89177.38844538164</v>
+        <v>81057.79895887588</v>
       </c>
       <c r="O6" t="n">
-        <v>89177.38844538163</v>
+        <v>81057.79895887579</v>
       </c>
       <c r="P6" t="n">
-        <v>89177.38844538166</v>
+        <v>81057.79895887589</v>
       </c>
     </row>
   </sheetData>
@@ -26813,22 +26813,22 @@
         <v>525.3032012649903</v>
       </c>
       <c r="J4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="K4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="L4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="M4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="N4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="O4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="P4" t="n">
         <v>525.3032012649903</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34719,7 +34719,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
@@ -34792,13 +34792,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>312.9348705146615</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>351.3993667524709</v>
+        <v>351.3993667524705</v>
       </c>
       <c r="M5" t="n">
         <v>397.2112790435232</v>
@@ -35017,7 +35017,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35029,13 +35029,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>106.2899856427332</v>
       </c>
       <c r="P6" t="n">
-        <v>87.71916873984496</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
         <v>242.5660323684674</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2.799832419646239</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35269,10 +35269,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524705</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
@@ -35430,7 +35430,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>516.4299455789112</v>
+        <v>372.3404753690708</v>
       </c>
       <c r="O12" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>15.27581240187084</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>272.5044558454301</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
         <v>516.4299455789112</v>
@@ -35743,10 +35743,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N18" t="n">
         <v>516.4299455789112</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>516.4299455789112</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36676,7 +36676,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L27" t="n">
         <v>369.5170153233491</v>
@@ -36691,7 +36691,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P27" t="n">
-        <v>247.0844513515564</v>
+        <v>15.2758124018713</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q29" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P30" t="n">
-        <v>148.5819430157098</v>
+        <v>247.0844513515569</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488611</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N33" t="n">
-        <v>516.4299455789112</v>
+        <v>226.5583647730076</v>
       </c>
       <c r="O33" t="n">
-        <v>252.0720962387968</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.787477306886596</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K36" t="n">
         <v>231.8086389496855</v>
@@ -37396,16 +37396,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N36" t="n">
-        <v>516.4299455789112</v>
+        <v>226.5583647730076</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
         <v>242.5660323684674</v>
@@ -37633,10 +37633,10 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
-        <v>396.1615664486372</v>
+        <v>167.1527599185983</v>
       </c>
       <c r="P39" t="n">
         <v>305.147393207775</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>2.799832419646239</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L42" t="n">
         <v>369.5170153233491</v>
@@ -37876,7 +37876,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>305.147393207775</v>
+        <v>15.2758124018713</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>2.799832419646239</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
         <v>369.5170153233491</v>
@@ -38113,7 +38113,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
